--- a/관리산출물/관리산출물PMP PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
+++ b/관리산출물/관리산출물PMP PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home\관리산출물PMP PSP\PSP\서한얼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP PSP\PSP\서한얼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F25A6-3F8D-405D-93A3-30882002AB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B32F01-6BA5-476E-8B69-35CAAB13113F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>서한얼</t>
   </si>
@@ -257,6 +257,10 @@
       </rPr>
       <t>제작</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>박영우팀원과회의</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +640,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1141,12 +1145,24 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="12">
+        <v>1500</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1600</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>60</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>

--- a/관리산출물/관리산출물PMP PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
+++ b/관리산출물/관리산출물PMP PSP/PSP/서한얼/신수동크러셔_psp_20130058_서한얼.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP PSP\PSP\서한얼\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B32F01-6BA5-476E-8B69-35CAAB13113F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED9E811-3698-4B84-8955-AC19028BAAA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>서한얼</t>
   </si>
@@ -261,6 +261,22 @@
   </si>
   <si>
     <t>박영우팀원과회의</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS 개선</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.11.21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_FLOW 제작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +656,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1165,20 +1181,44 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12"/>
+      <c r="A35" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="12">
+        <v>2200</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2100</v>
+      </c>
+      <c r="D35" s="13">
+        <v>10</v>
+      </c>
+      <c r="E35" s="13">
+        <v>50</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="12">
+        <v>1100</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1150</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>50</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
